--- a/Todoist Task Maker.xlsx
+++ b/Todoist Task Maker.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Dropbox\My projects\Todoist_stuff\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2DDD2675-5B72-4C88-8B5D-AF1BACBFEC29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F2897BC-51C6-4F29-9FC6-AEDB12D0B7B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="0" windowWidth="22068" windowHeight="9372" xr2:uid="{61DB9D26-61CE-4CA6-BA2C-4EDFD45C4813}"/>
+    <workbookView xWindow="6660" yWindow="0" windowWidth="22068" windowHeight="9372" xr2:uid="{61DB9D26-61CE-4CA6-BA2C-4EDFD45C4813}"/>
   </bookViews>
   <sheets>
     <sheet name="blank" sheetId="2" r:id="rId1"/>
@@ -28,10 +23,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Amit</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{DEB7B2B6-F293-4258-9656-115489B82911}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{261EF951-B26E-4C16-AFCD-0F17570E0C38}">
       <text>
         <r>
           <rPr>
@@ -41,11 +36,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Optional project where these tasks should go</t>
+          <t>Optional project where these tasks should go
+MAKE SURE PROJECT EXISTS PRIOR TO COPYING IN!!</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{1215B82B-6716-4B5B-BAAC-C1CEB5009FA0}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C536144D-A470-43CA-B921-BF9AD27B9895}">
       <text>
         <r>
           <rPr>
@@ -55,11 +51,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Optional filter to apply to all these tasks</t>
+          <t>Optional filter to apply to all these tasks
+MAKE SURE FILTER EXISTS PRIOR TO COPYING IN!!</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{AD359B7E-7F67-48A6-A883-EB6931099920}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{A1F24929-E625-47AC-876A-58E005AB1BE7}">
       <text>
         <r>
           <rPr>
@@ -73,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{B206B945-80ED-425F-8B07-14A33869B5AF}">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{4B8C297D-0533-4E32-AD2B-A599102F0E1A}">
       <text>
         <r>
           <rPr>
@@ -87,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{A185441B-46DD-4AE9-85AC-AB8E69562B15}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{95882B27-95A3-46EA-B22F-EF8A1C4E5104}">
       <text>
         <r>
           <rPr>
@@ -101,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{36AFDC37-95D6-45D5-B7A9-A4204D7E197F}">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{F3F20FF8-93C9-4B5B-A59C-5D62A7ADB56B}">
       <text>
         <r>
           <rPr>
@@ -111,7 +108,119 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Optional additional filter. If you want to insert more than one additional filter, enter them like this: "'@filter1 @filter2"</t>
+          <t>Optional additional filter. MAKE SURE FILTER EXISTS PRIOR TO COPYING IN!! 
+If you want to insert more than one additional filter, enter them like this: "'@filter1 @filter2"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{2D7E2AB8-2E63-4FB5-801F-753087E00920}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is what goes into Todoist</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{6C6E16ED-5860-4F88-A96E-9F79E8B54EEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional project where these tasks should go
+MAKE SURE PROJECT EXISTS PRIOR TO COPYING IN!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{FEF44A64-DEC5-4B98-B37B-54B73FEBB3DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional filter to apply to all these tasks
+MAKE SURE FILTER EXISTS PRIOR TO COPYING IN!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{9E86946D-A39A-41C2-9185-612AAA2DA2EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Target date… compare "Day offset to this date"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{10D56030-A6FE-414E-AFC3-5742122DB84D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional priority, 1,2,3,4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8B899742-D6B4-480F-A483-1711339AB052}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Days to compare against "Date" specified above</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{C9D9E148-05CD-413C-84AB-7A40EE6807D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional additional filter. MAKE SURE FILTER EXISTS PRIOR TO COPYING IN!! 
+If you want to insert more than one additional filter, enter them like this: "'@filter1 @filter2"</t>
         </r>
       </text>
     </comment>
@@ -1100,10 +1209,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6C2A1C-C8F2-4A9F-931C-ED7A58A36D18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6C2A1C-C8F2-4A9F-931C-ED7A58A36D18}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2926,7 +3037,7 @@
       </c>
       <c r="H72" s="15"/>
       <c r="I72" s="16" t="str">
-        <f t="shared" ref="I72:I103" si="14">IF(H72="","",CONCATENATE(D72," ",F72," ",G72," ",H72,E72))</f>
+        <f t="shared" ref="I72:I101" si="14">IF(H72="","",CONCATENATE(D72," ",F72," ",G72," ",H72,E72))</f>
         <v/>
       </c>
     </row>
@@ -4005,6 +4116,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4012,7 +4124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA62FC75-3A26-42E6-9288-1116370FFD16}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
